--- a/InputData/trans/FoSfBPPTtC/Fraction of Subsidy for Battery Production Passed Through to Consumers.xlsx
+++ b/InputData/trans/FoSfBPPTtC/Fraction of Subsidy for Battery Production Passed Through to Consumers.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\FoSfBPPTtC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. AGORA EPS\3. Sources finales\2. others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E453D-9834-499C-8AB7-6F5D5B5F88BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742DC97-9981-497B-B420-56976D881F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="2100" windowWidth="21600" windowHeight="12735" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{969363C9-CB5A-43B7-A012-7E714FCFCA2C}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="FoSfBPPTtC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,12 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Sources:</t>
+    <t>FoSfBPPTtC Fraction of Subsidy for Battery Production Passed Through to Consumers</t>
   </si>
   <si>
-    <t>FoSfBPPTtC Fraction of Subsidy for Battery Production Passed Through to Consumers</t>
+    <t xml:space="preserve">Sources : </t>
+  </si>
+  <si>
+    <t>Notes :</t>
+  </si>
+  <si>
+    <t>There are no subsidies for battery production in Europe in the BAU scenario,  the value 0 is set to everywhere</t>
   </si>
   <si>
     <t>Dmnl</t>
@@ -47,24 +56,12 @@
   <si>
     <t>Fraction Passed Through to Consumers</t>
   </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>ICCT and Energy Innovation</t>
-  </si>
-  <si>
-    <t>Analyzing the Impact of the Inflation Reduction Act on Electric Vehicle Uptake in the United States</t>
-  </si>
-  <si>
-    <t>https://energyinnovation.org/wp-content/uploads/2023/01/IRA-EV-assessment-white-paper-letter-v46.pdf</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +77,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,20 +147,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -125,6 +182,122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EFD909-75F5-4BED-A21C-467ED84C1960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="523142"/>
+          <a:ext cx="2263775" cy="809624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351203</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="Press Material">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7785FF-1B7D-4654-A963-2932D2EAE388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4345353" y="282575"/>
+          <a:ext cx="3275242" cy="1252855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,266 +596,570 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF982137-6F01-4109-8226-D4C6F3731BA9}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E230EA5-8911-44C4-99A9-DB2A1C482639}">
+  <dimension ref="B11:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="101.28515625" customWidth="1"/>
+    <col min="1" max="2" width="10.85546875" style="2"/>
+    <col min="3" max="3" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDD347E-AA42-40FE-8A86-2ACBD772F08E}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2027</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2029</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="10">
+        <v>2031</v>
+      </c>
+      <c r="M1" s="10">
+        <v>2032</v>
+      </c>
+      <c r="N1" s="10">
+        <v>2033</v>
+      </c>
+      <c r="O1" s="10">
+        <v>2034</v>
+      </c>
+      <c r="P1" s="10">
+        <v>2035</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>2036</v>
+      </c>
+      <c r="R1" s="10">
+        <v>2037</v>
+      </c>
+      <c r="S1" s="10">
+        <v>2038</v>
+      </c>
+      <c r="T1" s="10">
+        <v>2039</v>
+      </c>
+      <c r="U1" s="10">
+        <v>2040</v>
+      </c>
+      <c r="V1" s="10">
+        <v>2041</v>
+      </c>
+      <c r="W1" s="10">
+        <v>2042</v>
+      </c>
+      <c r="X1" s="10">
+        <v>2043</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>2044</v>
+      </c>
+      <c r="Z1" s="10">
+        <v>2045</v>
+      </c>
+      <c r="AA1" s="10">
+        <v>2046</v>
+      </c>
+      <c r="AB1" s="10">
+        <v>2047</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>2048</v>
+      </c>
+      <c r="AD1" s="10">
+        <v>2049</v>
+      </c>
+      <c r="AE1" s="10">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="57.95">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+      <c r="X2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB58F1CD-3AD5-4A1E-8AA0-C74AF29D4BF2}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>2021</v>
-      </c>
-      <c r="C1">
-        <v>2022</v>
-      </c>
-      <c r="D1">
-        <v>2023</v>
-      </c>
-      <c r="E1">
-        <v>2024</v>
-      </c>
-      <c r="F1">
-        <v>2025</v>
-      </c>
-      <c r="G1">
-        <v>2026</v>
-      </c>
-      <c r="H1">
-        <v>2027</v>
-      </c>
-      <c r="I1">
-        <v>2028</v>
-      </c>
-      <c r="J1">
-        <v>2029</v>
-      </c>
-      <c r="K1">
-        <v>2030</v>
-      </c>
-      <c r="L1">
-        <v>2031</v>
-      </c>
-      <c r="M1">
-        <v>2032</v>
-      </c>
-      <c r="N1">
-        <v>2033</v>
-      </c>
-      <c r="O1">
-        <v>2034</v>
-      </c>
-      <c r="P1">
-        <v>2035</v>
-      </c>
-      <c r="Q1">
-        <v>2036</v>
-      </c>
-      <c r="R1">
-        <v>2037</v>
-      </c>
-      <c r="S1">
-        <v>2038</v>
-      </c>
-      <c r="T1">
-        <v>2039</v>
-      </c>
-      <c r="U1">
-        <v>2040</v>
-      </c>
-      <c r="V1">
-        <v>2041</v>
-      </c>
-      <c r="W1">
-        <v>2042</v>
-      </c>
-      <c r="X1">
-        <v>2043</v>
-      </c>
-      <c r="Y1">
-        <v>2044</v>
-      </c>
-      <c r="Z1">
-        <v>2045</v>
-      </c>
-      <c r="AA1">
-        <v>2046</v>
-      </c>
-      <c r="AB1">
-        <v>2047</v>
-      </c>
-      <c r="AC1">
-        <v>2048</v>
-      </c>
-      <c r="AD1">
-        <v>2049</v>
-      </c>
-      <c r="AE1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.25</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
-      </c>
-      <c r="K2">
-        <v>0.375</v>
-      </c>
-      <c r="L2">
-        <v>0.25</v>
-      </c>
-      <c r="M2">
-        <v>0.125</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C56ED1-FD39-4955-91D4-4240EC67C71B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{277A125A-8CC8-4BE8-B3CE-60BBCADAA958}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618BC812-1273-443F-AAA2-457F89DA65C0}"/>
 </file>